--- a/xlsx_files/大阪ガスグループ.xlsx
+++ b/xlsx_files/大阪ガスグループ.xlsx
@@ -489,14 +489,6 @@
           <t>住宅設備・ハウスメーカー/法人営業/戸建注文住宅営業(大阪・兵庫) 大阪ガスグループ(大阪ガス100%出資)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:10000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -555,14 +547,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>品質管理(活性炭)【大阪】【Daigasグループ】</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4440000.0
-Max:6000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,14 +648,6 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>営業(食品)【大阪】【Daigasグループ】_新規事業開発部</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4900000.0
-Max:6100000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -786,14 +762,6 @@
           <t>設備管理</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:406500.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>&amp;#20154;&amp;#12395;&amp;#20778;&amp;#12375;&amp;#12367;&amp;#24555;&amp;#36969;&amp;#12394;&amp;#31354;&amp;#38291;&amp;#12389;&amp;#12367;&amp;#12426;&amp;#12392;&amp;#12289;&amp;#36039;&amp;#29987;&amp;#20385;&amp;#20516;&amp;#12398;&amp;#21521;&amp;#19978;&amp;#12434;&amp;#30446;&amp;#25351;&amp;#12375;&amp;#12390;
@@ -895,14 +863,6 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>人事(労務・人事制度)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1065,14 +1025,6 @@
           <t>一般事務・受付</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:180000.0
-Max:180000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#38442;&amp;#12460;&amp;#12473;&amp;#12469;&amp;#12540;&amp;#12499;&amp;#12473;&amp;#12471;&amp;#12519;&amp;#12483;&amp;#12503; &amp;#12367;&amp;#12425;&amp;#12375;&amp;#12503;&amp;#12521;&amp;#12473; &amp;#26666;&amp;#24335;&amp;#20250;&amp;#31038;&amp;#12456;&amp;#12493;&amp;#12523;&amp;#12462;&amp;#12540;&amp;#12473;&amp;#12486;&amp;#12540;&amp;#12471;&amp;#12519;&amp;#12531;&amp;#33446;&amp;#23627;&amp;#24215;
@@ -1202,14 +1154,6 @@
           <t>事務スタッフ/企画・事務・管理系</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>&amp;lt;4月入社&amp;gt;データ入力中心の事務　 土日祝休/賞与年2回/年間休日122日/正社員登用制度あり 
@@ -1338,14 +1282,6 @@
           <t>電気・ガス・水道/法務・コンプライアンス/国際法務</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:8000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -1428,14 +1364,6 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>その他サービスエンジニア</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1608,14 +1536,6 @@
           <t>受発注業務(スタッフ職)|年間休日120日以上</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4900000.0
-Max:6300000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>職種:生産管理(化学/素材) 業種:化学/素材 
@@ -1715,14 +1635,6 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>海外営業(活性炭第3営業部)【大阪】【Daigasグループ】</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:5000000.0
-Max:6000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1833,14 +1745,6 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>飲食店のキッチンスタッフ(社食による食事提供)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:970.0
-Max:970.0
-type:hourly</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1957,14 +1861,6 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>営業スタッフ</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:280000.0
-Max:280000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2113,14 +2009,6 @@
           <t>法務</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -2264,14 +2152,6 @@
           <t>設備管理</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#36578;&amp;#21220;&amp;#12394;&amp;#12375;&amp;#12539;&amp;#38306;&amp;#35199;&amp;#12395;&amp;#26681;&amp;#24046;&amp;#12375;&amp;#12390;&amp;#20685;&amp;#12356;&amp;#12390;&amp;#12356;&amp;#12383;&amp;#12384;&amp;#12369;&amp;#12414;&amp;#12377;
@@ -2375,14 +2255,6 @@
           <t>生産技術(グローバルイノベーション R&amp;D センター)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4900000.0
-Max:6300000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>───────── 
@@ -2484,14 +2356,6 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>その他サービスエンジニア</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2749,14 +2613,6 @@
           <t>事業企画・新規事業開発</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -2902,14 +2758,6 @@
           <t>設備管理技術者</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#36578;&amp;#21220;&amp;#12394;&amp;#12375;&amp;#12539;&amp;#38306;&amp;#35199;&amp;#12395;&amp;#26681;&amp;#24046;&amp;#12375;&amp;#12390;&amp;#20685;&amp;#12356;&amp;#12390;&amp;#12356;&amp;#12383;&amp;#12384;&amp;#12369;&amp;#12414;&amp;#12377;
@@ -3013,14 +2861,6 @@
           <t>営業(活性炭製品)【大阪】【Daigasグループ】</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3900000.0
-Max:6400000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>───────── 
@@ -3118,14 +2958,6 @@
           <t>不動産管理/人事全般/【人材教育】Daigasグループ/WLB充実企業で長期就業可能/残業少/WEB面接可</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3000000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -3181,14 +3013,6 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>プラント機器・設備</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3351,14 +3175,6 @@
           <t>住宅設備・ハウスメーカー/法人営業/戸建注文住宅営業(大阪・兵庫) 大阪ガスグループ(大阪ガス100%出資)</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:10000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -3417,14 +3233,6 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>プラント機器・設備</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3587,14 +3395,6 @@
           <t>化学・素材・バイオ・石油/管理会計/グローバル人事・総務　【WEB面接可】</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:8000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -3650,14 +3450,6 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>財務</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3804,14 +3596,6 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>M&amp;A</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:311000.0
-Max:625000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3969,14 +3753,6 @@
           <t>ガス機器・ガスおよび電気料金等に関する事務</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#38442;&amp;#12460;&amp;#12473;&amp;#12539;&amp;#12459;&amp;#12473;&amp;#12479;&amp;#12510;&amp;#12540;&amp;#12522;&amp;#12524;&amp;#12540;&amp;#12471;&amp;#12519;&amp;#12531;&amp;#12474;&amp;#26666;&amp;#24335;&amp;#20250;&amp;#31038;
@@ -4098,14 +3874,6 @@
           <t>設備管理技術者</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#36578;&amp;#21220;&amp;#12394;&amp;#12375;&amp;#12539;&amp;#38306;&amp;#35199;&amp;#12395;&amp;#26681;&amp;#24046;&amp;#12375;&amp;#12390;&amp;#20685;&amp;#12356;&amp;#12390;&amp;#12356;&amp;#12383;&amp;#12384;&amp;#12369;&amp;#12414;&amp;#12377;
@@ -4207,14 +3975,6 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>ディーラー・トレーダー</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4449,14 +4209,6 @@
           <t>法務</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -4606,14 +4358,6 @@
           <t>メーカー経験者のみOK|グローバル人事</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>職種:人事 業種:その他 
@@ -4729,14 +4473,6 @@
       <c r="D36" t="inlineStr">
         <is>
           <t>事業企画・新規事業開発</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4889,14 +4625,6 @@
           <t>電気・ガス・水道/リサーチ・データ分析/電力事業推進 (電力取引、リスク管理、新事業・新サービスの企画)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3000000.0
-Max:10000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -4950,14 +4678,6 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>設備管理技術者</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:518000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5080,14 +4800,6 @@
           <t>設備管理技術者</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:406500.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>&amp;#20154;&amp;#12395;&amp;#20778;&amp;#12375;&amp;#12367;&amp;#24555;&amp;#36969;&amp;#12394;&amp;#31354;&amp;#38291;&amp;#12389;&amp;#12367;&amp;#12426;&amp;#12392;&amp;#12289;&amp;#36039;&amp;#29987;&amp;#20385;&amp;#20516;&amp;#12398;&amp;#21521;&amp;#19978;&amp;#12434;&amp;#30446;&amp;#25351;&amp;#12375;&amp;#12390;
@@ -5189,14 +4901,6 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>その他サービスエンジニア</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5369,14 +5073,6 @@
           <t>サポート事務</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#38442;&amp;#12460;&amp;#12473;&amp;#12539;&amp;#12459;&amp;#12473;&amp;#12479;&amp;#12510;&amp;#12540;&amp;#12522;&amp;#12524;&amp;#12540;&amp;#12471;&amp;#12519;&amp;#12531;&amp;#12474;&amp;#26666;&amp;#24335;&amp;#20250;&amp;#31038;
@@ -5503,14 +5199,6 @@
       <c r="D42" t="inlineStr">
         <is>
           <t>2023 新卒採用 ガス 電力</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:202000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5654,14 +5342,6 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>その他サービスエンジニア</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5834,14 +5514,6 @@
           <t>商品企画・サービス企画</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -5992,14 +5664,6 @@
       <c r="D45" t="inlineStr">
         <is>
           <t>メーカー経験者のみOK|デジタル技術を活用した業務改革の推進</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6277,14 +5941,6 @@
           <t>設備管理</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#36578;&amp;#21220;&amp;#12394;&amp;#12375;&amp;#12539;&amp;#38306;&amp;#35199;&amp;#12395;&amp;#26681;&amp;#24046;&amp;#12375;&amp;#12390;&amp;#20685;&amp;#12356;&amp;#12390;&amp;#12356;&amp;#12383;&amp;#12384;&amp;#12369;&amp;#12414;&amp;#12377;
@@ -6388,14 +6044,6 @@
           <t>設備管理技術者</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#36578;&amp;#21220;&amp;#12394;&amp;#12375;&amp;#12539;&amp;#38306;&amp;#35199;&amp;#12395;&amp;#26681;&amp;#24046;&amp;#12375;&amp;#12390;&amp;#20685;&amp;#12356;&amp;#12390;&amp;#12356;&amp;#12383;&amp;#12384;&amp;#12369;&amp;#12414;&amp;#12377;
@@ -6497,14 +6145,6 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>IT戦略・システム企画担当</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6659,14 +6299,6 @@
           <t>経理(財務会計)</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -6817,14 +6449,6 @@
           <t>メーカー経験者のみOK|製造職(酉島事業所/交代勤務)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3800000.0
-Max:4100000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>職種:製造オペレーター/CADオペレーター 業種:化学/素材 
@@ -6927,14 +6551,6 @@
       <c r="D52" t="inlineStr">
         <is>
           <t>サービススタッフ(検針・閉開栓等)/電力・ガス・エネルギー業界</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7186,14 +6802,6 @@
           <t>清掃業務管理</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:281800.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>&amp;#22823;&amp;#25163;&amp;#31995;&amp;#21015;&amp;#12499;&amp;#12523;&amp;#12513;&amp;#12531;&amp;#12486;&amp;#12490;&amp;#12531;&amp;#12473;&amp;#20250;&amp;#31038;&amp;#12395;&amp;#12390;&amp;#28165;&amp;#25475;&amp;#26989;&amp;#21209;&amp;#31649;&amp;#29702;&amp;#12398;&amp;#25285;&amp;#24403;&amp;#32773;&amp;#12434;&amp;#21215;&amp;#38598;&amp;#12356;&amp;#12383;&amp;#12375;&amp;#12414;&amp;#12377;
@@ -7294,14 +6902,6 @@
       <c r="D54" t="inlineStr">
         <is>
           <t>プラント機器・設備</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7541,14 +7141,6 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>設備管理スタッフ/ビル管理・メンテナンス業界</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:-1.0
-type:monthly</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7869,14 +7461,6 @@
           <t>不動産管理/施工管理・監理/【施工管理】Daigasグループ/WLB充実企業で長期就業可能/残業少/WEB面接可</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -7933,14 +7517,6 @@
       <c r="D58" t="inlineStr">
         <is>
           <t>プロジェクトマネジメント(国内)</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -8089,14 +7665,6 @@
           <t>海外営業/ガラス・化学・石油業界の営業・代理店営業・ルートセールス・MR</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:5000000.0
-Max:6000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>&amp;lt;新着&amp;gt; 
@@ -8272,14 +7840,6 @@
           <t>年収800万円~1200万円/イノベーションに関わる新規事業開発およびベンチャー投資</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:8000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#32887;&amp;#31278;&amp;#12305;
@@ -8346,14 +7906,6 @@
       <c r="D62" t="inlineStr">
         <is>
           <t>メーカー経験者のみOK|DX戦略策定</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8467,14 +8019,6 @@
           <t>生産管理・品質管理(工業プロダクト)/ガラス・化学・石油業界の工業デザイン・インテリア・空間デザイン</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:6000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>&amp;lt;新着&amp;gt; 
@@ -8566,14 +8110,6 @@
       <c r="D64" t="inlineStr">
         <is>
           <t>設備管理</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:518000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8677,14 +8213,6 @@
       <c r="D65" t="inlineStr">
         <is>
           <t>ガス機器・ガスおよび電気料金等に関する事務</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -8808,14 +8336,6 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>設備管理スタッフ/ビル管理・メンテナンス業界</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:-1.0
-type:monthly</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -9136,14 +8656,6 @@
           <t>研究開発職(ファイン材料)|年間休日120日以上</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3900000.0
-Max:5300000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>職種:研究/開発(化学/素材) 業種:化学/素材 
@@ -9243,14 +8755,6 @@
           <t>年収800万円~1200万円/機能性材料(環境材料、ナノ材料)の研究開発・生産技術・事業化</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:8000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#32887;&amp;#31278;&amp;#12305;
@@ -9403,14 +8907,6 @@
       <c r="D70" t="inlineStr">
         <is>
           <t>営業スタッフ</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:250000.0
-Max:250000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -9557,14 +9053,6 @@
       <c r="D71" t="inlineStr">
         <is>
           <t>駐車場誘導警備員</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:1030.0
-Max:1030.0
-type:hourly</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -9932,14 +9420,6 @@
           <t>経理(財務会計)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -10094,14 +9574,6 @@
           <t>不動産管理/施工管理・監理/【施工管理】Daigasグループ/WLB充実企業で長期就業可能/残業少/WEB面接可</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -10158,14 +9630,6 @@
       <c r="D74" t="inlineStr">
         <is>
           <t>年収800万円~1200万円/再生可能エネルギー電源開発エンジニア</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:8000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -10235,14 +9699,6 @@
       <c r="D75" t="inlineStr">
         <is>
           <t>[大阪府大阪市中央区]営業/年収400万円~1000万円</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:205700.0
-Max:205700.0
-type:monthly</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -10347,14 +9803,6 @@
       <c r="D76" t="inlineStr">
         <is>
           <t>メーカー経験者のみOK|国際会計・税務</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -10462,14 +9910,6 @@
       <c r="D77" t="inlineStr">
         <is>
           <t>飲食店のキッチンスタッフ(社食による食事提供)</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:970.0
-Max:970.0
-type:hourly</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -10588,14 +10028,6 @@
           <t>メーカー経験者のみOK|総務(人材開発チーム)※大ガスグループ残業20h</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3900000.0
-Max:5300000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>職種:人事 業種:化学/素材 
@@ -10707,14 +10139,6 @@
           <t>電気・ガス・水道/新規事業企画・立上げ/カーボンニュートラル(CN)関連の技術開発・『プラント』エンジニアリング</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -10767,14 +10191,6 @@
       <c r="D80" t="inlineStr">
         <is>
           <t>メーカー経験者のみOK|国内法務</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -10879,14 +10295,6 @@
       <c r="D81" t="inlineStr">
         <is>
           <t>ビルメンテナンス(商業施設・店舗・オフィス)</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -11047,14 +10455,6 @@
       <c r="D82" t="inlineStr">
         <is>
           <t>その他サービスエンジニア</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -11328,14 +10728,6 @@
           <t>電気・ガス・水道/M&amp;A・合併・提携/再生可能エネルギー電源開発 (プロジェクトマネジメント)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -11390,14 +10782,6 @@
       <c r="D85" t="inlineStr">
         <is>
           <t>事業企画・新規事業開発</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -11549,14 +10933,6 @@
       <c r="D86" t="inlineStr">
         <is>
           <t>地域熱供給プラントの運転管理・設備保全</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:188400.0
-type:monthly</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -11763,14 +11139,6 @@
           <t>プロジェクトマネジメント(国内)</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -11913,14 +11281,6 @@
       <c r="D88" t="inlineStr">
         <is>
           <t>ビルメンテナンス(商業施設・店舗・オフィス)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:266000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -12082,14 +11442,6 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>地域熱供給プラントの運転管理・設備保全</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:188400.0
-type:monthly</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -12296,14 +11648,6 @@
           <t>地域熱供給プラントの運転管理・設備保全</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:188400.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>正社員[未経験者歓迎] 
@@ -12585,14 +11929,6 @@
           <t>事業企画・新規事業開発</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:229000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -12744,14 +12080,6 @@
           <t>メーカー経験者のみOK|デジタル技術を活用した業務改革の推進</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>職種:IT企画(IT) 業種:その他 
@@ -12865,14 +12193,6 @@
       <c r="D94" t="inlineStr">
         <is>
           <t>Webマーケティング(ネット広告・販促PRなど)</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -13026,14 +12346,6 @@
           <t>メーカー経験者のみOK|国内税務</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>職種:経理/財務 業種:その他 
@@ -13219,14 +12531,6 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>メーカー経験者のみOK|財務(ファイナンス)</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -13336,14 +12640,6 @@
           <t>メーカー経験者のみOK|製造職(ブラスト加工)</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3000000.0
-Max:5000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>職種:製造オペレーター/CADオペレーター 業種:化学/素材 
@@ -13431,14 +12727,6 @@
       <c r="D99" t="inlineStr">
         <is>
           <t>基礎・応用研究(有機金属・錯体・触媒)</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -13667,14 +12955,6 @@
           <t>メーカー経験者のみOK|社内SE(大規模システム開発のPMO)</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>職種:社内SE/インフラ(IT) 業種:その他 
@@ -13786,14 +13066,6 @@
           <t>設備管理技術者&lt;正社員&gt;第二種電気工事士・二級ボイラー技士・危険物取扱者乙四・高圧ガス取扱者</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -13905,14 +13177,6 @@
           <t>教育･研修-&gt;その他</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:172000.0
-Max:202000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -13988,14 +13252,6 @@
       <c r="D104" t="inlineStr">
         <is>
           <t>ビル管理</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:281800.0
-type:monthly</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -14153,14 +13409,6 @@
           <t>セキュリティエンジニア(脆弱性診断・ネットワークセキュリティ)</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:203000.0
-Max:203000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>大阪ガス株式会社 
@@ -14316,14 +13564,6 @@
           <t>メーカー経験者のみOK|購買/資材調達(炭素材・化成品)</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4900000.0
-Max:5200000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>職種:購買/資材調達 業種:化学/素材 
@@ -14429,14 +13669,6 @@
           <t>設備管理/大手ガスグループの施設管理会社/関西</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:4100000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>職種　ビル設備管理 
@@ -14508,14 +13740,6 @@
       <c r="D108" t="inlineStr">
         <is>
           <t>ビルマネジメント(商業施設・店舗・オフィス)</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:239500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -14685,14 +13909,6 @@
           <t>設備管理技術者&lt;正社員&gt;第二種電気工事士・二級ボイラー技士・危険物取扱者乙四・高圧ガス取扱者</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -14804,14 +14020,6 @@
           <t>サービスメンテナンス技術者/大阪ガスグループ企業/大阪府勤務</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>職種　プラント設備管理 
@@ -14885,14 +14093,6 @@
       <c r="D111" t="inlineStr">
         <is>
           <t>構造設計【大阪】【Daigasグループ】_入社実績多数</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:6300000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -15004,14 +14204,6 @@
       <c r="D112" t="inlineStr">
         <is>
           <t>管理職(無資格OK)</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:187400.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -15173,14 +14365,6 @@
           <t>電気・ガス・水道/Webプロデューサー・ディレクター/アプリ・webサービスのテクノロジー&amp;UI デザイン統括【大阪】</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -15260,14 +14444,6 @@
       <c r="D114" t="inlineStr">
         <is>
           <t>ビルマネジメント(商業施設・店舗・オフィス)</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:239500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -15432,14 +14608,6 @@
           <t>清掃業務管理&lt;正社員&gt;建築物環境衛生管理技術者・ビルクリーニング技能士・インスペクター</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3350000.0
-Max:4360000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -15552,14 +14720,6 @@
           <t>メーカー経験者のみOK|サイバーセキュリティ(ガス製造所・発電所等制御システム、各種IoT機器等)</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>職種:IT企画(IT) 業種:その他 
@@ -15667,14 +14827,6 @@
           <t>設備管理・保全/大阪/大手グループ化学メーカー</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3200000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>職種　電気設備保全 
@@ -15732,14 +14884,6 @@
       <c r="D118" t="inlineStr">
         <is>
           <t>建設・不動産個人営業</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:205700.0
-Max:205700.0
-type:monthly</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -15912,14 +15056,6 @@
           <t>建設・不動産法人営業</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:240000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -16075,14 +15211,6 @@
       <c r="D120" t="inlineStr">
         <is>
           <t>プラント機器・設備</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -16243,14 +15371,6 @@
       <c r="D121" t="inlineStr">
         <is>
           <t>設備管理技術者</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:188400.0
-Max:239500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -16627,14 +15747,6 @@
           <t>不動産管理/企画・設計・積算・測量/【管工事施工管理】Daigasグループ/WLB充実で長期就業可能/残業少/WEB面接可</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F122" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -16691,14 +15803,6 @@
       <c r="D123" t="inlineStr">
         <is>
           <t>[大阪府]機械エンジニア/年収280万円~410万円</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2800000.0
-Max:4100000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -16808,14 +15912,6 @@
       <c r="D124" t="inlineStr">
         <is>
           <t>建設・不動産個人営業</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:205700.0
-Max:205700.0
-type:monthly</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -16988,14 +16084,6 @@
           <t>サービスメンテナンス技術者/大阪ガスグループ企業/兵庫県</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>職種　プラント設備管理 
@@ -17069,14 +16157,6 @@
       <c r="D126" t="inlineStr">
         <is>
           <t>[大阪府大阪市東成区]建設エンジニア/年収334万円~460万円</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3340000.0
-Max:4600000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -17179,14 +16259,6 @@
       <c r="D127" t="inlineStr">
         <is>
           <t>ビルメンテナンス(商業施設・店舗・オフィス)</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -17349,14 +16421,6 @@
           <t>メーカー経験者のみOK|社内SE(サイバーセキュリティ・ITインフラ整備 など)</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>職種:IT企画(IT) 業種:その他 
@@ -17469,14 +16533,6 @@
       <c r="D129" t="inlineStr">
         <is>
           <t>設備施工管理(空調・衛生設備)</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:518000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -17627,14 +16683,6 @@
           <t>[京都府]機械エンジニア/年収280万円~410万円</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2800000.0
-Max:4100000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -17744,14 +16792,6 @@
           <t>[京都府]機械エンジニア/年収280万円~410万円</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2800000.0
-Max:4100000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -17861,14 +16901,6 @@
           <t>不動産管理/企画・設計・積算・測量/【管工事施工管理】Daigasグループ/WLB充実で長期就業可能/残業少/WEB面接可</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:4500000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -17925,14 +16957,6 @@
       <c r="D133" t="inlineStr">
         <is>
           <t>年収335万円~460万円/2級管工事施工管理技士</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3350000.0
-Max:4600000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -18000,14 +17024,6 @@
       <c r="D134" t="inlineStr">
         <is>
           <t>サービスメンテナンス技術者/大阪ガスグループ企業/京都府</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -18082,14 +17098,6 @@
       <c r="D135" t="inlineStr">
         <is>
           <t>建設工事施工管理</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:401800.0
-type:monthly</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -18195,14 +17203,6 @@
           <t>[大阪府大阪市東成区]建設エンジニア/年収307万円~460万円</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3070000.0
-Max:4600000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -18302,14 +17302,6 @@
       <c r="D137" t="inlineStr">
         <is>
           <t>[大阪府大阪市東成区]建設エンジニア/年収413万円~460万円</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -18414,14 +17406,6 @@
           <t>電気工事施工管理/大手ガスグループの施設管理会社/大阪</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3340000.0
-Max:4800000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>職種　電気工事施工管理 
@@ -18475,14 +17459,6 @@
       <c r="D139" t="inlineStr">
         <is>
           <t>[京都府京都市下京区]建設エンジニア/年収279万円~368万円</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -18587,14 +17563,6 @@
       <c r="D140" t="inlineStr">
         <is>
           <t>空調・給排水設備の施工管理&lt;正社員&gt;電気工事施工管理技士・管工事施工管理技士</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:300000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -18705,14 +17673,6 @@
           <t>建築施工管理/大手ガスグループの施設管理会社/大阪</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3340000.0
-Max:4800000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>職種　建築施工管理 
@@ -18767,14 +17727,6 @@
       <c r="D142" t="inlineStr">
         <is>
           <t>不動産管理/企画・設計・積算・測量/【電気工事施工管理】Daigasグループ/WLB充実で長期就業可能/残業少/WEB面接可</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4000000.0
-Max:4500000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -18833,14 +17785,6 @@
       <c r="D143" t="inlineStr">
         <is>
           <t>[兵庫県伊丹市]営業/年収400万円~1000万円</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:205700.0
-Max:205700.0
-type:monthly</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -18947,14 +17891,6 @@
           <t>[大阪府大阪市東成区]建設エンジニア/年収279万円~368万円</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:2790000.0
-Max:3680000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -19059,14 +17995,6 @@
           <t>[京都府京都市下京区]建設エンジニア/年収413万円~460万円</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -19169,14 +18097,6 @@
           <t>管工事施工管理/大手ガスグループの施設管理会社/大阪</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3340000.0
-Max:4800000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>職種　管工事施工管理 
@@ -19234,14 +18154,6 @@
       <c r="D147" t="inlineStr">
         <is>
           <t>[大阪府大阪市東成区]建設エンジニア/年収413万円~460万円</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -19344,14 +18256,6 @@
       <c r="D148" t="inlineStr">
         <is>
           <t>設備施工管理(空調・衛生設備)</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:219500.0
-Max:518000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -19503,14 +18407,6 @@
           <t>年収335万円~460万円/1級管工事施工管理技士</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:3350000.0
-Max:4600000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#32887;&amp;#31278;&amp;#12305;
@@ -19576,14 +18472,6 @@
       <c r="D150" t="inlineStr">
         <is>
           <t>[大阪府大阪市東成区]建設エンジニア/年収413万円~460万円</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -19688,14 +18576,6 @@
           <t>[京都府京都市下京区]建設エンジニア/年収413万円~460万円</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -19798,14 +18678,6 @@
           <t>[京都府京都市下京区]建設エンジニア/年収413万円~460万円</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:4130000.0
-Max:4600000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>株式会社大阪ガスファシリティーズ 
@@ -19906,14 +18778,6 @@
       <c r="D153" t="inlineStr">
         <is>
           <t>一般事務・受付</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:180000.0
-Max:180000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -20026,14 +18890,6 @@
           <t>サービススタッフ</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:232500.0
-Max:232500.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F154" t="inlineStr">
         <is>
           <t xml:space="preserve">【職種名】 
@@ -20120,14 +18976,6 @@
       <c r="D155" t="inlineStr">
         <is>
           <t>一般事務</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -20222,14 +19070,6 @@
       <c r="D156" t="inlineStr">
         <is>
           <t>サポート事務</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -20330,14 +19170,6 @@
       <c r="D157" t="inlineStr">
         <is>
           <t>サポート事務</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -20447,14 +19279,6 @@
           <t>飲食店のキッチンスタッフ(社食による食事提供)</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:970.0
-Max:970.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#27714;&amp;#20154;&amp;#35443;&amp;#32048;&amp;#12305;
@@ -20550,14 +19374,6 @@
       <c r="D159" t="inlineStr">
         <is>
           <t>サポート事務</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -20667,14 +19483,6 @@
           <t>サポート事務</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#27714;&amp;#20154;&amp;#35443;&amp;#32048;&amp;#12305;
@@ -20780,14 +19588,6 @@
       <c r="D161" t="inlineStr">
         <is>
           <t>サポート事務</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -20898,14 +19698,6 @@
           <t>ガス機器・ガスおよび電気料金等に関する事務</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#27714;&amp;#20154;&amp;#35443;&amp;#32048;&amp;#12305;
@@ -21005,14 +19797,6 @@
       <c r="D163" t="inlineStr">
         <is>
           <t>サポート事務</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -21123,14 +19907,6 @@
           <t>ガス機器・ガスおよび電気料金等に関する事務</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:186300.0
-Max:186300.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#27714;&amp;#20154;&amp;#35443;&amp;#32048;&amp;#12305;
@@ -21232,14 +20008,6 @@
       <c r="D165" t="inlineStr">
         <is>
           <t>ガス機器・リフォーム等の提案営業(サービススタッフ)</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:250000.0
-Max:250000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -21365,14 +20133,6 @@
           <t>ガス機器・リフォーム等の提案営業(サービススタッフ)</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:280000.0
-Max:280000.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>&amp;#12304;&amp;#27714;&amp;#20154;&amp;#35443;&amp;#32048;&amp;#12305;
